--- a/hw/HW11_Schools.xlsx
+++ b/hw/HW11_Schools.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="360" yWindow="120" windowWidth="18195" windowHeight="9270"/>
@@ -10,12 +10,12 @@
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="6">
   <si>
     <t>hours</t>
   </si>
@@ -31,12 +31,15 @@
   <si>
     <t>B</t>
   </si>
+  <si>
+    <t>Avg</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -167,7 +170,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -202,7 +204,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -378,19 +379,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C31"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="3" max="3" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" s="4" t="s">
         <v>2</v>
       </c>
@@ -401,7 +402,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
@@ -412,7 +413,7 @@
         <v>8.077579050511515</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
@@ -423,7 +424,7 @@
         <v>7.4038936715346431</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3">
       <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
@@ -434,7 +435,7 @@
         <v>7.5668055868691653</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3">
       <c r="A5" s="4" t="s">
         <v>3</v>
       </c>
@@ -445,7 +446,7 @@
         <v>21.86090038142008</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3">
       <c r="A6" s="4" t="s">
         <v>3</v>
       </c>
@@ -456,7 +457,7 @@
         <v>23.773556511230339</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3">
       <c r="A7" s="4" t="s">
         <v>3</v>
       </c>
@@ -467,7 +468,7 @@
         <v>20.801196214694574</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3">
       <c r="A8" s="4" t="s">
         <v>3</v>
       </c>
@@ -478,7 +479,7 @@
         <v>48.646452210407752</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3">
       <c r="A9" s="4" t="s">
         <v>3</v>
       </c>
@@ -489,7 +490,7 @@
         <v>50.897748739045028</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3">
       <c r="A10" s="4" t="s">
         <v>3</v>
       </c>
@@ -500,7 +501,7 @@
         <v>48.555755649818138</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3">
       <c r="A11" s="4" t="s">
         <v>3</v>
       </c>
@@ -511,7 +512,7 @@
         <v>86.751598742097158</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3">
       <c r="A12" s="4" t="s">
         <v>3</v>
       </c>
@@ -522,7 +523,7 @@
         <v>86.755627314592715</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3">
       <c r="A13" s="4" t="s">
         <v>3</v>
       </c>
@@ -533,7 +534,7 @@
         <v>86.103378385188236</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3">
       <c r="A14" s="4" t="s">
         <v>3</v>
       </c>
@@ -544,7 +545,7 @@
         <v>138.883708493906</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3">
       <c r="A15" s="4" t="s">
         <v>3</v>
       </c>
@@ -555,7 +556,7 @@
         <v>137.6520400911046</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3">
       <c r="A16" s="4" t="s">
         <v>3</v>
       </c>
@@ -566,7 +567,7 @@
         <v>138.15716735947612</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3">
       <c r="A17" s="4" t="s">
         <v>4</v>
       </c>
@@ -577,7 +578,7 @@
         <v>7.7788645834158086</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3">
       <c r="A18" s="4" t="s">
         <v>4</v>
       </c>
@@ -588,7 +589,7 @@
         <v>10.459119777423803</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3">
       <c r="A19" s="4" t="s">
         <v>4</v>
       </c>
@@ -599,7 +600,7 @@
         <v>8.6766196225102235</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3">
       <c r="A20" s="4" t="s">
         <v>4</v>
       </c>
@@ -610,7 +611,7 @@
         <v>41.484613502239071</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3">
       <c r="A21" s="4" t="s">
         <v>4</v>
       </c>
@@ -621,7 +622,7 @@
         <v>42.361422592434231</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3">
       <c r="A22" s="4" t="s">
         <v>4</v>
       </c>
@@ -632,7 +633,7 @@
         <v>42.506252064849534</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3">
       <c r="A23" s="4" t="s">
         <v>4</v>
       </c>
@@ -643,7 +644,7 @@
         <v>99.464850637659922</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3">
       <c r="A24" s="4" t="s">
         <v>4</v>
       </c>
@@ -654,7 +655,7 @@
         <v>99.629483170919585</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3">
       <c r="A25" s="4" t="s">
         <v>4</v>
       </c>
@@ -665,7 +666,7 @@
         <v>98.264479651217101</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3">
       <c r="A26" s="4" t="s">
         <v>4</v>
       </c>
@@ -676,7 +677,7 @@
         <v>185.63991508925915</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3">
       <c r="A27" s="4" t="s">
         <v>4</v>
       </c>
@@ -687,7 +688,7 @@
         <v>184.66698445704617</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3">
       <c r="A28" s="4" t="s">
         <v>4</v>
       </c>
@@ -698,7 +699,7 @@
         <v>182.49777734741704</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3">
       <c r="A29" s="4" t="s">
         <v>4</v>
       </c>
@@ -709,7 +710,7 @@
         <v>300.39730888443449</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3">
       <c r="A30" s="4" t="s">
         <v>4</v>
       </c>
@@ -720,7 +721,7 @@
         <v>299.47595400164124</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3">
       <c r="A31" s="4" t="s">
         <v>4</v>
       </c>
@@ -729,6 +730,15 @@
       </c>
       <c r="C31" s="2">
         <v>300</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" t="s">
+        <v>5</v>
+      </c>
+      <c r="B33">
+        <f>AVERAGE(B2:B32)</f>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -738,12 +748,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
